--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A29594C-DBDB-9A4E-B223-935774E11709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E925A-A9C1-5C45-A0D0-159BBB6D0FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="3580" windowWidth="19320" windowHeight="22340" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26860" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
     <sheet name="Triggers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Detector</t>
   </si>
   <si>
-    <t>PU 140</t>
-  </si>
-  <si>
-    <t>PU 200</t>
-  </si>
-  <si>
     <t>Tracking</t>
   </si>
   <si>
@@ -114,18 +108,6 @@
     <t>Data (bytes)</t>
   </si>
   <si>
-    <t>True Pass</t>
-  </si>
-  <si>
-    <t>True Discard</t>
-  </si>
-  <si>
-    <t>False Pass (alpha)</t>
-  </si>
-  <si>
-    <t>False Discard (beta)</t>
-  </si>
-  <si>
     <t>Compression</t>
   </si>
   <si>
@@ -148,6 +130,15 @@
   </si>
   <si>
     <t>Sample Rate</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>Skill mean</t>
+  </si>
+  <si>
+    <t>Skill variance</t>
   </si>
 </sst>
 </file>
@@ -500,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +503,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,33 +511,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>436666.66666666663</v>
@@ -554,28 +530,13 @@
       <c r="D2" s="1">
         <v>40000000</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>206666.66666666669</v>
@@ -583,28 +544,13 @@
       <c r="D3" s="1">
         <v>40000000</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>126666.66666666669</v>
@@ -612,28 +558,13 @@
       <c r="D4" s="1">
         <v>40000000</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -641,28 +572,13 @@
       <c r="D5" s="1">
         <v>40000000</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>76666.666666666657</v>
@@ -670,28 +586,13 @@
       <c r="D6" s="1">
         <v>40000000</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
       <c r="C7">
         <v>136666.66666666669</v>
@@ -699,28 +600,13 @@
       <c r="D7" s="1">
         <v>40000000</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>180000</v>
@@ -728,28 +614,13 @@
       <c r="D8" s="1">
         <v>40000000</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9">
         <v>240000</v>
@@ -757,28 +628,13 @@
       <c r="D9" s="1">
         <v>40000000</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>30000</v>
@@ -786,28 +642,13 @@
       <c r="D10" s="1">
         <v>40000000</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>60000</v>
@@ -815,28 +656,13 @@
       <c r="D11" s="1">
         <v>40000000</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>56666.666666666672</v>
@@ -844,28 +670,13 @@
       <c r="D12" s="1">
         <v>40000000</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13">
         <v>143333.33333333331</v>
@@ -873,28 +684,13 @@
       <c r="D13" s="1">
         <v>40000000</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>666.66666666666652</v>
@@ -902,28 +698,13 @@
       <c r="D14" s="1">
         <v>40000000</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -931,28 +712,13 @@
       <c r="D15" s="1">
         <v>40000000</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>26666.666666666672</v>
@@ -960,49 +726,19 @@
       <c r="D16" s="1">
         <v>40000000</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>10000</v>
       </c>
       <c r="D17" s="1">
         <v>40000000</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1012,52 +748,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1074,16 +801,13 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1100,16 +824,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1126,16 +847,13 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1152,75 +870,60 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*J6)</f>
-        <v>260000</v>
+        <f>INT(1000000*I6)</f>
+        <v>0</v>
       </c>
       <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>399</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.26</v>
-      </c>
-      <c r="J6">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>99</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1235,9 +938,6 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535E925A-A9C1-5C45-A0D0-159BBB6D0FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CCCCCC-6BEF-6E45-9A37-0EE57E542709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26860" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="2580" yWindow="1760" windowWidth="25600" windowHeight="26860" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +516,11 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -530,8 +533,11 @@
       <c r="D2" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -544,8 +550,11 @@
       <c r="D3" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -558,8 +567,11 @@
       <c r="D4" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -572,8 +584,11 @@
       <c r="D5" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -586,8 +601,11 @@
       <c r="D6" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -600,8 +618,11 @@
       <c r="D7" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="D8" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -628,8 +652,11 @@
       <c r="D9" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -642,8 +669,11 @@
       <c r="D10" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -656,8 +686,11 @@
       <c r="D11" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -670,8 +703,11 @@
       <c r="D12" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -684,8 +720,11 @@
       <c r="D13" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -698,8 +737,11 @@
       <c r="D14" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -712,8 +754,11 @@
       <c r="D15" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -726,8 +771,11 @@
       <c r="D16" s="1">
         <v>40000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -739,6 +787,9 @@
       </c>
       <c r="D17" s="1">
         <v>40000000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -750,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,8 +930,7 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <f>INT(1000000*I6)</f>
-        <v>0</v>
+        <v>260000</v>
       </c>
       <c r="D6">
         <v>400</v>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CCCCCC-6BEF-6E45-9A37-0EE57E542709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006ED09E-45A5-9141-BF2B-34FC7612CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1760" windowWidth="25600" windowHeight="26860" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="2580" yWindow="520" windowWidth="25600" windowHeight="26860" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
     <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Category</t>
   </si>
@@ -139,16 +140,32 @@
   </si>
   <si>
     <t>Skill variance</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Link Efficiency (J/bit)</t>
+  </si>
+  <si>
+    <t>Op Efficiency (J/op)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,19 +509,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +534,16 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -533,11 +556,17 @@
       <c r="D2" s="1">
         <v>40000000</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -550,11 +579,17 @@
       <c r="D3" s="1">
         <v>40000000</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -567,11 +602,17 @@
       <c r="D4" s="1">
         <v>40000000</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -584,11 +625,17 @@
       <c r="D5" s="1">
         <v>40000000</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -601,11 +648,17 @@
       <c r="D6" s="1">
         <v>40000000</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -618,11 +671,17 @@
       <c r="D7" s="1">
         <v>40000000</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -635,11 +694,17 @@
       <c r="D8" s="1">
         <v>40000000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -652,11 +717,17 @@
       <c r="D9" s="1">
         <v>40000000</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -669,11 +740,17 @@
       <c r="D10" s="1">
         <v>40000000</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -686,11 +763,17 @@
       <c r="D11" s="1">
         <v>40000000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -703,11 +786,17 @@
       <c r="D12" s="1">
         <v>40000000</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -720,11 +809,17 @@
       <c r="D13" s="1">
         <v>40000000</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -737,11 +832,17 @@
       <c r="D14" s="1">
         <v>40000000</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -754,11 +855,17 @@
       <c r="D15" s="1">
         <v>40000000</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -771,11 +878,17 @@
       <c r="D16" s="1">
         <v>40000000</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -788,7 +901,274 @@
       <c r="D17" s="1">
         <v>40000000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>260000</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H7">
+        <v>1600</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -797,198 +1177,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:G8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A72EC52-E06E-024C-A487-5A82B610371F}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>260000</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006ED09E-45A5-9141-BF2B-34FC7612CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F7589-F1E3-A842-BE54-8FCEBBC3821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="520" windowWidth="25600" windowHeight="26860" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="2580" yWindow="520" windowWidth="25600" windowHeight="26860" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1108,8 @@
         <v>2.5000000000000001E-11</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <f>120000/(40000000)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1137,7 +1138,8 @@
         <v>2.5000000000000001E-11</v>
       </c>
       <c r="H7">
-        <v>1600</v>
+        <f>1600000/(100000)</f>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>0</v>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F7589-F1E3-A842-BE54-8FCEBBC3821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0686A78-5BBF-A345-A9F8-A95E5D903626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="520" windowWidth="25600" windowHeight="26860" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -512,11 +512,12 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -931,7 +932,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0686A78-5BBF-A345-A9F8-A95E5D903626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE181FE-DF51-AD4C-AB9D-AEF948610B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="520" windowWidth="25600" windowHeight="26860" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="6560" yWindow="7280" windowWidth="22460" windowHeight="19060" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>Sample Rate</t>
   </si>
   <si>
-    <t>Reduction</t>
-  </si>
-  <si>
     <t>Skill mean</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Op Efficiency (J/op)</t>
+  </si>
+  <si>
+    <t>Reduction Ratio</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +535,10 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -932,11 +932,12 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
@@ -952,19 +953,19 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -987,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>2.5000000000000001E-11</v>
@@ -1016,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>2.5000000000000001E-11</v>
@@ -1045,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>2.5000000000000001E-11</v>
@@ -1074,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>2.5000000000000001E-11</v>
@@ -1163,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>2.5000000000000001E-11</v>
@@ -1192,7 +1193,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE181FE-DF51-AD4C-AB9D-AEF948610B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43956E3-9457-7348-BC60-DBA0D5EFC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="7280" windowWidth="22460" windowHeight="19060" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Disk</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Sample Rate</t>
@@ -532,13 +529,13 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -932,7 +929,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,19 +950,19 @@
         <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -1150,9 +1147,6 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1193,7 +1187,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43956E3-9457-7348-BC60-DBA0D5EFC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D1603-FE03-0841-AA48-E4DE15700ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="7280" windowWidth="22460" windowHeight="19060" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="-25220" yWindow="20520" windowWidth="22460" windowHeight="19060" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -146,6 +146,27 @@
   </si>
   <si>
     <t>Reduction Ratio</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>L1T</t>
+  </si>
+  <si>
+    <t>HGCAL</t>
+  </si>
+  <si>
+    <t>HGCAL TPG Stage1</t>
+  </si>
+  <si>
+    <t>HGCAL TPG Stage2</t>
   </si>
 </sst>
 </file>
@@ -188,10 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,9 +232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +272,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,13 +795,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>56666.666666666672</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>40000000</v>
@@ -787,7 +809,7 @@
       <c r="E12" s="1">
         <v>2.2200000000000002E-11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12">
@@ -796,13 +818,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>143333.33333333331</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <v>40000000</v>
@@ -810,7 +832,7 @@
       <c r="E13" s="1">
         <v>2.2200000000000002E-11</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13">
@@ -819,13 +841,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>666.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
         <v>40000000</v>
@@ -833,7 +855,7 @@
       <c r="E14" s="1">
         <v>2.2200000000000002E-11</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14">
@@ -845,10 +867,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>56666.666666666672</v>
       </c>
       <c r="D15" s="1">
         <v>40000000</v>
@@ -868,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>26666.666666666672</v>
+        <v>143333.33333333331</v>
       </c>
       <c r="D16" s="1">
         <v>40000000</v>
@@ -891,32 +913,92 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>666.66666666666652</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>26666.666666666672</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>10000</v>
       </c>
-      <c r="D17" s="1">
-        <v>40000000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.2200000000000002E-11</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.2200000000000002E-11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,7 +1021,7 @@
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -953,220 +1035,243 @@
         <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>260000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="H7" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="I7" s="2">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>260000</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H6">
-        <f>120000/(40000000)</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H7">
-        <f>1600000/(100000)</f>
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.5000000000000001E-11</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527D1603-FE03-0841-AA48-E4DE15700ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D763283-4D38-FA4E-A51B-2244C9D33312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25220" yWindow="20520" windowWidth="22460" windowHeight="19060" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="19640" yWindow="29560" windowWidth="22460" windowHeight="17380" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -531,12 +531,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D763283-4D38-FA4E-A51B-2244C9D33312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA45675-DABE-C643-A95A-6819E3F60711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="29560" windowWidth="22460" windowHeight="17380" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Dummy</t>
   </si>
   <si>
-    <t>Gaussian</t>
-  </si>
-  <si>
     <t>L1T</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>HGCAL TPG Stage2</t>
+  </si>
+  <si>
+    <t>HLT</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF34C2-0233-224E-A21E-0372D088B6D7}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF50D47B-EF5E-D84A-888D-0FD7C5F25128}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>

--- a/cms_system_60.xlsx
+++ b/cms_system_60.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA45675-DABE-C643-A95A-6819E3F60711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA89BFF-FE6C-4A42-898C-59FBB1B27CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="50040" windowHeight="26800" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
-    <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Processors" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
